--- a/dataModel.xlsx
+++ b/dataModel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Review</t>
   </si>
@@ -78,7 +78,31 @@
     <t>responseDate</t>
   </si>
   <si>
-    <t>rails generate model TeamMember name:string role:references</t>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>rails generate model Role name:string</t>
+  </si>
+  <si>
+    <t>rails generate model Review dueDate:datetime TeamMember:references</t>
+  </si>
+  <si>
+    <t>rails generate model TeamMember name:string Role:references</t>
+  </si>
+  <si>
+    <t>rails generate model Evaluation Review:references TeamMember:references</t>
+  </si>
+  <si>
+    <t>rails generate model Comment Evaluation:references commentText:string</t>
+  </si>
+  <si>
+    <t>rails generate model Response Evaluation:references responseDate:datetime Answer:references Question:references</t>
+  </si>
+  <si>
+    <t>rails generate model Answer answerValue:string</t>
+  </si>
+  <si>
+    <t>rails generate model Question questionText:string</t>
   </si>
 </sst>
 </file>
@@ -410,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,10 +450,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -437,105 +461,136 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
